--- a/BackTest/2020-01-15 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-15 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>87.43029045999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -605,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -864,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -938,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,17 +1012,11 @@
         <v>-120.82983309</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>42610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,17 +1045,11 @@
         <v>-119.84983309</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,17 +1078,11 @@
         <v>-119.84983309</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>42700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1199,17 +1111,11 @@
         <v>-119.91763309</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>42700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,17 +1144,11 @@
         <v>-119.91763309</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,17 +1177,11 @@
         <v>45.87136690999996</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,17 +1210,11 @@
         <v>66.21616690999997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>42800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1355,17 +1243,11 @@
         <v>66.17146690999996</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>43060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1394,17 +1276,11 @@
         <v>63.87146690999997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,17 +1309,11 @@
         <v>65.94816690999997</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>42710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1472,17 +1342,11 @@
         <v>-2.662233090000029</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>42830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1511,17 +1375,11 @@
         <v>-2.662233090000029</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>42610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1552,15 +1410,9 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>42610</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1591,15 +1443,9 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>42530</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1630,15 +1476,9 @@
       <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
-        <v>42530</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1669,15 +1509,9 @@
       <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
-        <v>42740</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1708,15 +1542,9 @@
       <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
-        <v>43000</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1747,15 +1575,9 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
-        <v>42630</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1786,15 +1608,9 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>42630</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1825,15 +1641,9 @@
       <c r="H38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="n">
-        <v>42560</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1864,15 +1674,9 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>42830</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1903,15 +1707,9 @@
       <c r="H40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
-        <v>42800</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1942,15 +1740,9 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>42910</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1981,15 +1773,9 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>42910</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2020,15 +1806,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>42910</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2057,15 +1837,11 @@
         <v>226.23776691</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2094,15 +1870,11 @@
         <v>226.30486691</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2133,15 +1905,9 @@
       <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>43120</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2170,15 +1936,11 @@
         <v>226.33126691</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2207,15 +1969,11 @@
         <v>226.83126691</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2244,15 +2002,11 @@
         <v>405.30246691</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2281,15 +2035,11 @@
         <v>384.69916691</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2318,15 +2068,11 @@
         <v>384.72566691</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2355,15 +2101,11 @@
         <v>550.41896691</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2392,15 +2134,11 @@
         <v>550.41896691</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2429,15 +2167,11 @@
         <v>552.59096691</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2466,15 +2200,11 @@
         <v>557.23306691</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2503,15 +2233,11 @@
         <v>516.96226691</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2540,15 +2266,11 @@
         <v>517.4177669100001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2577,15 +2299,11 @@
         <v>505.4177669100001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2614,15 +2332,11 @@
         <v>507.8370669100001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2651,15 +2365,11 @@
         <v>498.1304669100001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2688,15 +2398,11 @@
         <v>404.7326669100001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2725,15 +2431,11 @@
         <v>404.7956669100001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2762,15 +2464,11 @@
         <v>407.2066669100001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2799,15 +2497,11 @@
         <v>407.2066669100001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2836,15 +2530,11 @@
         <v>407.3281669100001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2873,15 +2563,11 @@
         <v>407.6812669100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2910,15 +2596,11 @@
         <v>407.7712669100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2947,15 +2629,11 @@
         <v>403.9130669100001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2984,15 +2662,11 @@
         <v>404.98086691</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3021,15 +2695,11 @@
         <v>404.98086691</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3058,15 +2728,11 @@
         <v>405.03166691</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3095,15 +2761,11 @@
         <v>405.10786691</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3132,15 +2794,11 @@
         <v>359.75446691</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3169,15 +2827,11 @@
         <v>400.27256691</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3206,15 +2860,11 @@
         <v>373.68336691</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3243,15 +2893,11 @@
         <v>386.45206438</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3280,15 +2926,11 @@
         <v>900.5964437299999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3317,15 +2959,11 @@
         <v>807.5528581299999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3354,15 +2992,11 @@
         <v>817.7331581299999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3391,15 +3025,11 @@
         <v>817.5609581299999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3428,15 +3058,11 @@
         <v>858.9853581299999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3465,15 +3091,11 @@
         <v>879.2772581299998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3502,15 +3124,11 @@
         <v>862.3502581299998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3539,15 +3157,11 @@
         <v>800.3834581299998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3576,15 +3190,11 @@
         <v>685.8334581299998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3613,15 +3223,11 @@
         <v>685.9528581299999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3650,15 +3256,11 @@
         <v>685.1106581299998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3687,15 +3289,11 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3724,15 +3322,11 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3761,15 +3355,11 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3798,15 +3388,11 @@
         <v>633.6218581299999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3835,15 +3421,11 @@
         <v>634.0912581299998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3872,15 +3454,11 @@
         <v>631.9542581299999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3909,15 +3487,11 @@
         <v>644.6064541499999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3946,15 +3520,11 @@
         <v>641.2132541499999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3983,15 +3553,11 @@
         <v>729.0960541499999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4020,15 +3586,11 @@
         <v>691.7611541499999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4057,15 +3619,11 @@
         <v>667.7611541499999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4094,15 +3652,11 @@
         <v>697.7637989599999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4131,15 +3685,11 @@
         <v>697.7637989599999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4168,15 +3718,11 @@
         <v>698.0292989599999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4205,15 +3751,11 @@
         <v>698.0965989599999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4242,15 +3784,11 @@
         <v>1048.45489896</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +3817,11 @@
         <v>1028.90969896</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4316,15 +3850,11 @@
         <v>1011.77969896</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4353,15 +3883,11 @@
         <v>989.1727989599998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4390,15 +3916,11 @@
         <v>990.2210989599998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4427,15 +3949,11 @@
         <v>990.2210989599998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4464,15 +3982,11 @@
         <v>1025.77289896</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4501,15 +4015,11 @@
         <v>824.8786989599998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4538,15 +4048,11 @@
         <v>824.8786989599998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4575,15 +4081,11 @@
         <v>825.4648989599998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4612,15 +4114,11 @@
         <v>685.8694989599998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4649,15 +4147,11 @@
         <v>578.7603989599997</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4686,15 +4180,11 @@
         <v>601.8973104899998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4723,15 +4213,11 @@
         <v>350.4235104899998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4760,15 +4246,11 @@
         <v>350.4485047099998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4797,15 +4279,11 @@
         <v>288.2781047099998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4834,15 +4312,11 @@
         <v>288.2781047099998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4871,15 +4345,11 @@
         <v>304.6108494599998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4908,15 +4378,11 @@
         <v>364.8162494599998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4945,15 +4411,11 @@
         <v>364.8162494599998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4982,15 +4444,11 @@
         <v>14.46054945999975</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5019,15 +4477,11 @@
         <v>14.48054945999975</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5056,15 +4510,11 @@
         <v>-257.4594505400003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5093,15 +4543,11 @@
         <v>-90.73275054000027</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5130,15 +4576,11 @@
         <v>-136.7327505400003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5167,15 +4609,11 @@
         <v>-136.7077505400003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5204,15 +4642,11 @@
         <v>259.6070986999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5241,15 +4675,11 @@
         <v>191.4421986999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5278,16 +4708,14 @@
         <v>304.8877406799998</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -5313,7 +4741,7 @@
         <v>310.5592406799997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5346,7 +4774,7 @@
         <v>347.0980133999997</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5379,7 +4807,7 @@
         <v>347.0980133999997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5412,7 +4840,7 @@
         <v>353.1505133999997</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5445,7 +4873,7 @@
         <v>339.9959133999997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5478,7 +4906,7 @@
         <v>339.9959133999997</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5511,7 +4939,7 @@
         <v>335.9231133999997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5544,7 +4972,7 @@
         <v>339.2682133999998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5577,7 +5005,7 @@
         <v>303.9420133999997</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5610,7 +5038,7 @@
         <v>312.0892133999997</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5643,7 +5071,7 @@
         <v>436.2038133999997</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5676,7 +5104,7 @@
         <v>437.3373133999997</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5709,7 +5137,7 @@
         <v>298.0215961899997</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5742,7 +5170,7 @@
         <v>295.9717961899997</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5775,7 +5203,7 @@
         <v>325.9744961899997</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5808,7 +5236,7 @@
         <v>326.9744961899997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5841,7 +5269,7 @@
         <v>327.9744961899997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5874,7 +5302,7 @@
         <v>237.7461961899998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5907,7 +5335,7 @@
         <v>267.6570961899998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5940,7 +5368,7 @@
         <v>267.6859961899998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5973,7 +5401,7 @@
         <v>243.1859961899998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6006,7 +5434,7 @@
         <v>243.1859961899998</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6039,7 +5467,7 @@
         <v>245.6744961899998</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6072,7 +5500,7 @@
         <v>245.6744961899998</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6105,7 +5533,7 @@
         <v>244.9218961899998</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6138,7 +5566,7 @@
         <v>244.1692961899998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6171,7 +5599,7 @@
         <v>242.7709961899998</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6204,7 +5632,7 @@
         <v>248.2535961899998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6237,7 +5665,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6270,7 +5698,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6303,7 +5731,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6336,7 +5764,7 @@
         <v>277.8895961899998</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6369,7 +5797,7 @@
         <v>278.0731961899998</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6402,7 +5830,7 @@
         <v>278.1439961899998</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6435,7 +5863,7 @@
         <v>292.2439961899998</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6468,7 +5896,7 @@
         <v>292.2439961899998</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6501,7 +5929,7 @@
         <v>297.8882961899998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6534,7 +5962,7 @@
         <v>298.0207961899998</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6567,7 +5995,7 @@
         <v>298.0207961899998</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6600,7 +6028,7 @@
         <v>415.5006446199998</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6633,7 +6061,7 @@
         <v>415.5800446199999</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6666,7 +6094,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6699,7 +6127,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6732,7 +6160,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6765,7 +6193,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6798,7 +6226,7 @@
         <v>375.0900446199998</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6831,7 +6259,7 @@
         <v>104.8583446199999</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6864,7 +6292,7 @@
         <v>104.8583446199999</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6897,7 +6325,7 @@
         <v>91.45184461999986</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6930,7 +6358,7 @@
         <v>97.60774461999986</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6963,7 +6391,7 @@
         <v>97.60774461999986</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6996,7 +6424,7 @@
         <v>190.2388446199999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7029,7 +6457,7 @@
         <v>172.0222446199999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7062,7 +6490,7 @@
         <v>174.3616446199999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7095,7 +6523,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7128,7 +6556,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7161,7 +6589,7 @@
         <v>185.3616446199999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7194,7 +6622,7 @@
         <v>227.1448446199999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7227,7 +6655,7 @@
         <v>282.0045446199999</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7260,7 +6688,7 @@
         <v>280.1191446199999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7293,7 +6721,7 @@
         <v>281.6243446199999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7326,7 +6754,7 @@
         <v>281.5443446199999</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7359,7 +6787,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7392,7 +6820,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7425,7 +6853,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7458,7 +6886,7 @@
         <v>346.7327446199999</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7491,7 +6919,7 @@
         <v>245.5983446199999</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7524,7 +6952,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7557,7 +6985,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7590,7 +7018,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7623,7 +7051,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7656,7 +7084,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7689,7 +7117,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7722,7 +7150,7 @@
         <v>246.6931446199999</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7755,7 +7183,7 @@
         <v>-88757.30685538</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7788,7 +7216,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7821,7 +7249,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7854,7 +7282,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7887,7 +7315,7 @@
         <v>-88377.73115538</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7920,7 +7348,7 @@
         <v>-88377.73115538</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7953,7 +7381,7 @@
         <v>-88378.64615537999</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7986,7 +7414,7 @@
         <v>-88415.16425537999</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8019,7 +7447,7 @@
         <v>-88519.94515537999</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8052,7 +7480,7 @@
         <v>-88480.70905537999</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8085,7 +7513,7 @@
         <v>-88372.95375537999</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8118,7 +7546,7 @@
         <v>-88372.95375537999</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8151,7 +7579,7 @@
         <v>-88348.71705538</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8184,7 +7612,7 @@
         <v>-88348.65125538</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8217,7 +7645,7 @@
         <v>-88321.17665538</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8250,7 +7678,7 @@
         <v>-88232.90175537999</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8283,7 +7711,7 @@
         <v>-88274.94945537999</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8316,7 +7744,7 @@
         <v>-88257.26145537999</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8349,7 +7777,7 @@
         <v>-88256.13675537999</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8382,7 +7810,7 @@
         <v>-88293.21525538</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8415,7 +7843,7 @@
         <v>-88293.21525538</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8448,7 +7876,7 @@
         <v>-88587.70515538</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8481,7 +7909,7 @@
         <v>-88562.70515538</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8514,7 +7942,7 @@
         <v>-88542.70515538</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9372,10 +8800,14 @@
         <v>-88173.20855537998</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>45390</v>
+      </c>
+      <c r="J255" t="n">
+        <v>45390</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -9408,8 +8840,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>45390</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9441,8 +8879,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>45390</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9537,10 +8981,14 @@
         <v>-88108.65489054</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>46860</v>
+      </c>
+      <c r="J260" t="n">
+        <v>46860</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9570,11 +9018,19 @@
         <v>-88108.63489053999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>46280</v>
+      </c>
+      <c r="J261" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +9059,19 @@
         <v>-88118.20329054</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>46570</v>
+      </c>
+      <c r="J262" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +9100,19 @@
         <v>-88152.62189054</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>46560</v>
+      </c>
+      <c r="J263" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +9141,19 @@
         <v>-88166.77699054001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>46290</v>
+      </c>
+      <c r="J264" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9702,11 +9182,19 @@
         <v>-88197.06999054001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>46130</v>
+      </c>
+      <c r="J265" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9223,19 @@
         <v>-88238.49089054001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>46100</v>
+      </c>
+      <c r="J266" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9768,11 +9264,19 @@
         <v>-88181.56439054001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>45850</v>
+      </c>
+      <c r="J267" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +9305,19 @@
         <v>-88077.70729054001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>46480</v>
+      </c>
+      <c r="J268" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +9346,19 @@
         <v>-88116.49179054001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>46510</v>
+      </c>
+      <c r="J269" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +9387,19 @@
         <v>-88183.50899054001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>46500</v>
+      </c>
+      <c r="J270" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9900,11 +9428,19 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>46480</v>
+      </c>
+      <c r="J271" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9933,11 +9469,19 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>46350</v>
+      </c>
+      <c r="J272" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9966,11 +9510,19 @@
         <v>-88354.64759054</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>46350</v>
+      </c>
+      <c r="J273" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9999,11 +9551,19 @@
         <v>-88354.16869054</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>45710</v>
+      </c>
+      <c r="J274" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +9592,19 @@
         <v>-88356.09389054</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>46190</v>
+      </c>
+      <c r="J275" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +9633,19 @@
         <v>-88357.19469054</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>46170</v>
+      </c>
+      <c r="J276" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10098,11 +9674,19 @@
         <v>-88352.16789053999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>45720</v>
+      </c>
+      <c r="J277" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +9715,19 @@
         <v>-88250.87319053999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>45810</v>
+      </c>
+      <c r="J278" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +9756,19 @@
         <v>-88289.32929053999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>46300</v>
+      </c>
+      <c r="J279" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +9797,19 @@
         <v>-88229.04259053999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>46020</v>
+      </c>
+      <c r="J280" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +9838,19 @@
         <v>-88202.13799054</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>46350</v>
+      </c>
+      <c r="J281" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10263,11 +9879,19 @@
         <v>-88177.84869053999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>46700</v>
+      </c>
+      <c r="J282" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10296,11 +9920,19 @@
         <v>-88130.26909053999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>46900</v>
+      </c>
+      <c r="J283" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +9961,19 @@
         <v>-88063.41379054</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>47250</v>
+      </c>
+      <c r="J284" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +10002,19 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>47470</v>
+      </c>
+      <c r="J285" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10395,11 +10043,19 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>47700</v>
+      </c>
+      <c r="J286" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10431,8 +10087,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10464,8 +10126,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10497,8 +10165,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10530,8 +10204,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10563,8 +10243,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10593,11 +10279,19 @@
         <v>-88121.50709053999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>46970</v>
+      </c>
+      <c r="J292" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10626,11 +10320,19 @@
         <v>-88004.24049053999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>46760</v>
+      </c>
+      <c r="J293" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10659,11 +10361,19 @@
         <v>-88016.58319053998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>47210</v>
+      </c>
+      <c r="J294" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10692,11 +10402,19 @@
         <v>-88004.58319053998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>46660</v>
+      </c>
+      <c r="J295" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10728,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10761,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10794,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10827,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10860,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10893,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10926,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10959,8 +10719,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11025,8 +10797,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11058,8 +10836,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11091,8 +10875,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11124,8 +10914,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11157,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11190,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11223,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11256,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11289,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11322,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11355,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11388,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11421,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11454,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11487,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11520,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11553,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11586,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11619,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11652,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11685,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11718,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11751,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11784,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11817,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11850,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11883,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11916,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11982,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12015,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12048,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12081,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12114,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12213,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12246,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12279,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12312,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12345,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12378,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12411,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12444,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12477,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12510,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12543,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12576,8 +12630,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12609,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12642,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12675,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12708,8 +12786,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12741,8 +12825,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12807,8 +12903,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12840,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12873,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12906,8 +13020,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12939,8 +13059,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12972,8 +13098,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13005,8 +13137,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13038,8 +13176,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13071,8 +13215,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13104,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13137,8 +13293,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13170,8 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13203,8 +13371,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13236,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13269,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13302,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13335,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13368,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13401,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13434,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13467,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13500,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13533,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13566,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13599,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13632,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13665,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13698,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13731,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13764,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13797,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13830,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13863,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13896,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13929,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13962,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13995,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14028,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14061,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14094,8 +14424,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14127,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14160,8 +14502,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14193,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14226,8 +14580,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14259,8 +14619,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14292,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14325,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14358,8 +14736,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14391,8 +14775,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14424,8 +14814,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14457,8 +14853,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14490,8 +14892,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14523,8 +14931,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14556,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14589,8 +15009,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14622,8 +15048,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14655,8 +15087,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14688,8 +15126,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14721,8 +15165,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14754,8 +15204,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14787,8 +15243,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14820,8 +15282,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14853,8 +15321,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14886,8 +15360,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14919,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14952,8 +15438,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14985,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15018,8 +15516,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15051,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15084,8 +15594,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15117,8 +15633,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15150,8 +15672,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15183,8 +15711,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15216,8 +15750,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15249,8 +15789,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15282,8 +15828,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15315,8 +15867,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15348,8 +15906,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15381,8 +15945,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15414,8 +15984,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15447,8 +16023,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15480,8 +16062,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15513,8 +16101,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15546,8 +16140,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15579,8 +16179,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15612,8 +16218,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15645,8 +16257,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15678,8 +16296,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15711,8 +16335,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15744,8 +16374,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15777,8 +16413,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15810,8 +16452,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15843,8 +16491,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15876,8 +16530,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15909,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15942,8 +16608,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15975,8 +16647,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16008,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16041,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16074,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16107,8 +16803,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16140,8 +16842,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16173,8 +16881,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16206,8 +16920,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16239,8 +16959,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16272,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16305,8 +17037,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16338,8 +17076,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16371,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16404,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16437,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16470,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16503,8 +17271,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16536,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16569,8 +17349,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16602,8 +17388,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16635,8 +17427,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16668,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16701,8 +17505,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16734,8 +17544,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16767,8 +17583,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16800,8 +17622,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16833,8 +17661,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16866,8 +17700,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16899,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16932,8 +17778,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16965,8 +17817,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16998,8 +17856,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17031,8 +17895,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17064,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17097,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17130,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17163,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17196,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17229,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17262,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17295,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17328,8 +18246,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17361,8 +18285,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17394,8 +18324,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17427,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17460,8 +18402,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17493,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17526,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17559,8 +18519,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17592,8 +18558,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17625,8 +18597,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17658,8 +18636,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17691,8 +18675,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17724,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17757,8 +18753,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17790,8 +18792,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17823,8 +18831,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17856,8 +18870,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17889,8 +18909,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17922,8 +18948,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17955,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17988,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18021,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18054,8 +19104,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18087,8 +19143,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18120,8 +19182,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18153,8 +19221,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18186,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18219,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18249,13 +19335,19 @@
         <v>-88632.96811952995</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>46860</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L524" t="n">
-        <v>1</v>
+        <v>1.028077251387111</v>
       </c>
       <c r="M524" t="inlineStr"/>
     </row>
@@ -18315,7 +19407,7 @@
         <v>-88633.45711952995</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18348,7 +19440,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18381,7 +19473,7 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18414,7 +19506,7 @@
         <v>-88646.51211952994</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18480,7 +19572,7 @@
         <v>-88647.01211952994</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18513,7 +19605,7 @@
         <v>-88815.25051952995</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19085,6 +20177,6 @@
       <c r="M549" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-15 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>-53.97383309000003</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-53.97383309000003</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-53.49153309000003</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-53.01463309000003</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-58.31463309000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-58.31463309000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-58.34423309000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>222.64846691</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>222.58856691</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>224.68736691</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>224.68736691</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>224.68736691</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>226.17066691</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>226.23776691</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>226.30486691</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>226.33126691</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>226.33126691</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>226.83126691</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>405.30246691</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>384.69916691</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>384.72566691</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>550.41896691</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>550.41896691</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>552.59096691</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>557.23306691</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>516.96226691</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>517.4177669100001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>505.4177669100001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>507.8370669100001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>498.1304669100001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>404.7326669100001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>404.7956669100001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>407.2066669100001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>407.2066669100001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>407.3281669100001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>407.6812669100001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>407.7712669100001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>403.9130669100001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>404.98086691</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>404.98086691</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>405.03166691</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>405.10786691</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>359.75446691</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>400.27256691</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>373.68336691</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>386.45206438</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>900.5964437299999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>807.5528581299999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>817.7331581299999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>817.5609581299999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>858.9853581299999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>879.2772581299998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>862.3502581299998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>800.3834581299998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>685.8334581299998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>685.9528581299999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>685.1106581299998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>630.9594581299998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>633.6218581299999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>634.0912581299998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>631.9542581299999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>644.6064541499999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>641.2132541499999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>729.0960541499999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>691.7611541499999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>667.7611541499999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>697.7637989599999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>697.7637989599999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>698.0292989599999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>698.0965989599999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1048.45489896</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1028.90969896</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1011.77969896</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>989.1727989599998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>990.2210989599998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>990.2210989599998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1025.77289896</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>824.8786989599998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>824.8786989599998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>825.4648989599998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>685.8694989599998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>578.7603989599997</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>601.8973104899998</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>350.4235104899998</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>350.4485047099998</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>288.2781047099998</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>288.2781047099998</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>304.6108494599998</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>364.8162494599998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>364.8162494599998</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>14.46054945999975</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>14.48054945999975</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-257.4594505400003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-90.73275054000027</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-136.7327505400003</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-136.7077505400003</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>259.6070986999997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>191.4421986999997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>304.8877406799998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>310.5592406799997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>347.0980133999997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>347.0980133999997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>353.1505133999997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>339.9959133999997</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>339.9959133999997</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>335.9231133999997</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>339.2682133999998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>303.9420133999997</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>312.0892133999997</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>436.2038133999997</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>437.3373133999997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>298.0215961899997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>295.9717961899997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>325.9744961899997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>326.9744961899997</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>327.9744961899997</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>237.7461961899998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>267.6570961899998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>267.6859961899998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>243.1859961899998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>243.1859961899998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>245.6744961899998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>245.6744961899998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>244.9218961899998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>244.1692961899998</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>242.7709961899998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>248.2535961899998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>248.4274961899998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>277.8895961899998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>278.0731961899998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>278.1439961899998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>292.2439961899998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>292.2439961899998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>297.8882961899998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>298.0207961899998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>298.0207961899998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>415.5006446199998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>415.5800446199999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>382.3868446199999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>375.0900446199998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>104.8583446199999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>104.8583446199999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>91.45184461999986</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>97.60774461999986</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>97.60774461999986</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>190.2388446199999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>172.0222446199999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>174.3616446199999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>186.3616446199999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>185.3616446199999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>227.1448446199999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>282.0045446199999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>280.1191446199999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>281.6243446199999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>281.5443446199999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>347.1508446199999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>346.7327446199999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>245.5983446199999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>245.9405446199999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>246.6931446199999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-88757.30685538</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-88757.27855537999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-88415.16425537999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-88519.94515537999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-88480.70905537999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88372.95375537999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-88372.95375537999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88348.71705538</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88348.65125538</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-88321.17665538</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-88232.90175537999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-88274.94945537999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-88257.26145537999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-88293.21525538</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-88293.21525538</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-88587.70515538</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-88562.70515538</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-88542.70515538</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-88454.06645537999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-88440.06645537999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-88456.90885537998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-88426.60875537997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-88412.80025537997</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8800,14 +8800,10 @@
         <v>-88173.20855537998</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>45390</v>
-      </c>
-      <c r="J255" t="n">
-        <v>45390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -8840,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>45390</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8879,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>45390</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8981,14 +8965,10 @@
         <v>-88108.65489054</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>46860</v>
-      </c>
-      <c r="J260" t="n">
-        <v>46860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9018,19 +8998,11 @@
         <v>-88108.63489053999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>46280</v>
-      </c>
-      <c r="J261" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9059,19 +9031,11 @@
         <v>-88118.20329054</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>46570</v>
-      </c>
-      <c r="J262" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9100,19 +9064,11 @@
         <v>-88152.62189054</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>46560</v>
-      </c>
-      <c r="J263" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9141,19 +9097,11 @@
         <v>-88166.77699054001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>46290</v>
-      </c>
-      <c r="J264" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9182,19 +9130,11 @@
         <v>-88197.06999054001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>46130</v>
-      </c>
-      <c r="J265" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9223,19 +9163,11 @@
         <v>-88238.49089054001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>46100</v>
-      </c>
-      <c r="J266" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9264,19 +9196,11 @@
         <v>-88181.56439054001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>45850</v>
-      </c>
-      <c r="J267" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9305,19 +9229,11 @@
         <v>-88077.70729054001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>46480</v>
-      </c>
-      <c r="J268" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9346,19 +9262,11 @@
         <v>-88116.49179054001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>46510</v>
-      </c>
-      <c r="J269" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9387,19 +9295,11 @@
         <v>-88183.50899054001</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>46500</v>
-      </c>
-      <c r="J270" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9428,19 +9328,11 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>46480</v>
-      </c>
-      <c r="J271" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9469,19 +9361,11 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>46350</v>
-      </c>
-      <c r="J272" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9510,19 +9394,11 @@
         <v>-88354.64759054</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>46350</v>
-      </c>
-      <c r="J273" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9551,19 +9427,11 @@
         <v>-88354.16869054</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>45710</v>
-      </c>
-      <c r="J274" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9592,19 +9460,11 @@
         <v>-88356.09389054</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>46190</v>
-      </c>
-      <c r="J275" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9633,19 +9493,11 @@
         <v>-88357.19469054</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>46170</v>
-      </c>
-      <c r="J276" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9674,19 +9526,11 @@
         <v>-88352.16789053999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>45720</v>
-      </c>
-      <c r="J277" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9715,19 +9559,11 @@
         <v>-88250.87319053999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>45810</v>
-      </c>
-      <c r="J278" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9756,19 +9592,11 @@
         <v>-88289.32929053999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>46300</v>
-      </c>
-      <c r="J279" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9797,19 +9625,11 @@
         <v>-88229.04259053999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>46020</v>
-      </c>
-      <c r="J280" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9838,19 +9658,11 @@
         <v>-88202.13799054</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>46350</v>
-      </c>
-      <c r="J281" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9879,19 +9691,11 @@
         <v>-88177.84869053999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>46700</v>
-      </c>
-      <c r="J282" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9920,19 +9724,11 @@
         <v>-88130.26909053999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>46900</v>
-      </c>
-      <c r="J283" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9961,19 +9757,11 @@
         <v>-88063.41379054</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>47250</v>
-      </c>
-      <c r="J284" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10002,19 +9790,11 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>47470</v>
-      </c>
-      <c r="J285" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10043,19 +9823,11 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>47700</v>
-      </c>
-      <c r="J286" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10126,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10165,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10204,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10243,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10279,19 +10021,11 @@
         <v>-88121.50709053999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>46970</v>
-      </c>
-      <c r="J292" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10320,19 +10054,11 @@
         <v>-88004.24049053999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>46760</v>
-      </c>
-      <c r="J293" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10361,19 +10087,11 @@
         <v>-88016.58319053998</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>47210</v>
-      </c>
-      <c r="J294" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10402,19 +10120,11 @@
         <v>-88004.58319053998</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>46660</v>
-      </c>
-      <c r="J295" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10446,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10485,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10524,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10563,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10602,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10641,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10680,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10719,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10758,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10875,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11304,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11382,14 +10948,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11421,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11499,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11538,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11577,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11616,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11655,14 +11179,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11694,14 +11212,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11733,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11772,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11811,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11850,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11889,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11928,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11967,14 +11443,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12006,14 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12045,14 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12081,17 +11539,15 @@
         <v>-88208.49388142995</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>46310</v>
+      </c>
       <c r="J338" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>46310</v>
+      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12120,15 +11576,17 @@
         <v>-88200.16678142996</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>46510</v>
+      </c>
       <c r="J339" t="n">
-        <v>46860</v>
+        <v>46310</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -12159,15 +11617,17 @@
         <v>-88200.35898142996</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>46840</v>
+      </c>
       <c r="J340" t="n">
-        <v>46860</v>
+        <v>46310</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -12201,14 +11661,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12237,17 +11691,15 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>46490</v>
+      </c>
       <c r="J342" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>46490</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12280,11 +11732,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>46860</v>
+        <v>46490</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12319,11 +11771,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>46860</v>
+        <v>46490</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -12357,14 +11809,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12393,17 +11839,15 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>46910</v>
+      </c>
       <c r="J346" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>46910</v>
+      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12436,11 +11880,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>46860</v>
+        <v>46910</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12475,11 +11919,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>46860</v>
+        <v>46910</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -12513,14 +11957,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12552,14 +11990,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12591,14 +12023,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12630,14 +12056,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12669,14 +12089,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12708,14 +12122,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12747,14 +12155,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12786,14 +12188,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12825,14 +12221,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12864,14 +12254,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12903,14 +12287,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12942,14 +12320,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12981,14 +12353,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13020,14 +12386,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13059,14 +12419,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13098,14 +12452,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13137,14 +12485,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>46860</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13173,15 +12515,15 @@
         <v>-87938.52828142994</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>46860</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>47310</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -13215,9 +12557,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13254,9 +12594,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,9 +12631,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,9 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,9 +12705,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,9 +12742,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,9 +12779,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,9 +12816,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,9 +12853,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,9 +12890,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,9 +12927,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,9 +12964,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,9 +13001,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,9 +13038,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,9 +13075,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,9 +13112,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,9 +13149,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +13186,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,9 +13223,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,9 +13260,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,9 +13297,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,9 +13334,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,9 +13371,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,9 +13408,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,9 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +13482,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +13519,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +13556,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,9 +13593,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,9 +13630,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,9 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,12 +13701,12 @@
         <v>-88055.25704402992</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>46860</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>47490</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +13743,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +13780,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,9 +13817,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,12 +13851,12 @@
         <v>-88046.81574402993</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>46860</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>48190</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,9 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +13930,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,9 +13967,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +14004,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +14041,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,9 +14078,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,9 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,9 +14152,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,9 +14189,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,9 +14226,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,9 +14263,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +14300,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,9 +14337,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,9 +14374,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +14411,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,9 +14448,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,9 +14485,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,9 +14522,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,9 +14559,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +14596,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,9 +14633,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15438,9 +14670,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +14707,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,9 +14744,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,9 +14781,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,9 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,9 +14855,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15672,9 +14892,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,9 +14929,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,9 +14966,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,9 +15003,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15828,9 +15040,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15867,9 +15077,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,9 +15114,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15945,9 +15151,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15984,9 +15188,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16023,9 +15225,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,9 +15262,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16101,9 +15299,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16140,9 +15336,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,9 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16218,9 +15410,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,9 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16296,9 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16335,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16413,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16530,9 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16569,9 +15743,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16608,9 +15780,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16647,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16686,9 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16725,9 +15891,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,9 +15928,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16803,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16842,9 +16002,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16881,9 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,9 +16076,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,9 +16113,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16998,9 +16150,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17037,9 +16187,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17076,9 +16224,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17115,9 +16261,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,9 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,9 +16335,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,9 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,9 +16409,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17310,9 +16446,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,9 +16483,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17388,9 +16520,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +16557,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,9 +16631,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,9 +16668,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,9 +16705,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +16742,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +16779,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +16816,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +16853,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +16890,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +16927,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,9 +16964,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17934,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,9 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18012,9 +17112,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18051,9 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18090,9 +17186,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18129,9 +17223,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,9 +17260,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18207,9 +17297,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18246,9 +17334,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18285,9 +17371,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18324,9 +17408,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,9 +17445,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18402,9 +17482,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18441,9 +17519,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18480,9 +17556,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18519,9 +17593,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18558,9 +17630,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18597,9 +17667,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,9 +17704,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,9 +17741,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,9 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18753,9 +17815,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,9 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18831,9 +17889,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18870,9 +17926,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18909,9 +17963,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,9 +18000,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,9 +18037,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +18074,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19065,9 +18111,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,9 +18148,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19143,9 +18185,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19182,9 +18222,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +18259,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19260,9 +18296,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,9 +18333,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19335,19 +18367,17 @@
         <v>-88632.96811952995</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>46860</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L524" t="n">
-        <v>1.028077251387111</v>
+        <v>1</v>
       </c>
       <c r="M524" t="inlineStr"/>
     </row>
@@ -19378,7 +18408,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19407,11 +18441,15 @@
         <v>-88633.45711952995</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19440,11 +18478,15 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19473,11 +18515,15 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19506,11 +18552,15 @@
         <v>-88646.51211952994</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19543,7 +18593,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19572,11 +18626,15 @@
         <v>-88647.01211952994</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19605,11 +18663,15 @@
         <v>-88815.25051952995</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19642,7 +18704,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19675,7 +18741,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19708,7 +18778,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19741,7 +18815,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19774,7 +18852,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19807,7 +18889,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19840,7 +18926,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19873,7 +18963,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19906,7 +19000,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19939,7 +19037,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19972,7 +19074,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20005,7 +19111,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20038,7 +19148,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20071,7 +19185,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20104,7 +19222,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20137,7 +19259,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20170,13 +19296,17 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
       <c r="M549" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-15 BackTest ZEC.xlsx
@@ -8107,7 +8107,7 @@
         <v>-88454.06645537999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-88440.06645537999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-88456.90885537998</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-88452.52905537999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-88426.60875537997</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-88412.80025537997</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8734,11 +8734,17 @@
         <v>-88185.18155537998</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>46180</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8773,17 @@
         <v>-88185.27835537998</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>45760</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8812,17 @@
         <v>-88173.20855537998</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>45390</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8851,17 @@
         <v>-88108.02939053999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>46070</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8894,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8927,15 @@
         <v>-88108.32959054</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8964,17 @@
         <v>-88108.32959054</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>46860</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9003,17 @@
         <v>-88108.65489054</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>46860</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9042,17 @@
         <v>-88108.63489053999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>46280</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9081,17 @@
         <v>-88118.20329054</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>46570</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9120,17 @@
         <v>-88152.62189054</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>46560</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9159,17 @@
         <v>-88166.77699054001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>46290</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9198,17 @@
         <v>-88197.06999054001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>46130</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9237,17 @@
         <v>-88238.49089054001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>46100</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9276,17 @@
         <v>-88181.56439054001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>45850</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9315,17 @@
         <v>-88077.70729054001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>46480</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9354,17 @@
         <v>-88116.49179054001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>46510</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9393,17 @@
         <v>-88183.50899054001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>46500</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9432,17 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>46480</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9471,17 @@
         <v>-88200.92069054001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>46350</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9510,17 @@
         <v>-88354.64759054</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>46350</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9549,17 @@
         <v>-88354.16869054</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>45710</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9588,17 @@
         <v>-88356.09389054</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>46190</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9627,17 @@
         <v>-88357.19469054</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>46170</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9666,17 @@
         <v>-88352.16789053999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>45720</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9705,17 @@
         <v>-88250.87319053999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>45810</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9744,17 @@
         <v>-88289.32929053999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>46300</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9783,17 @@
         <v>-88229.04259053999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>46020</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9822,17 @@
         <v>-88202.13799054</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>46350</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9861,17 @@
         <v>-88177.84869053999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>46700</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9900,17 @@
         <v>-88130.26909053999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>46900</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9939,17 @@
         <v>-88063.41379054</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>47250</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9978,17 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>47470</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +10017,16 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -9856,7 +10052,7 @@
         <v>-88056.12419053999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10085,7 @@
         <v>-88038.91759053999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10118,7 @@
         <v>-88039.75149053999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10151,7 @@
         <v>-88121.11629053998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,11 +10184,17 @@
         <v>-88118.30389053999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>46760</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10223,17 @@
         <v>-88121.50709053999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>46970</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10262,17 @@
         <v>-88004.24049053999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>46760</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10301,15 @@
         <v>-88016.58319053998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10338,17 @@
         <v>-88004.58319053998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>46660</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10377,15 @@
         <v>-88007.82209053998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10414,15 @@
         <v>-88002.85599053997</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10451,17 @@
         <v>-87992.23119053997</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>46650</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10490,15 @@
         <v>-88002.84869053996</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10527,15 @@
         <v>-87989.06029053996</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10564,15 @@
         <v>-87951.75895898996</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,14 +10601,16 @@
         <v>-87925.81365898995</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
@@ -10384,7 +10636,7 @@
         <v>-87923.33465898994</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10669,7 @@
         <v>-87963.01415898994</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10702,7 @@
         <v>-87930.66385898994</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10735,7 @@
         <v>-87929.90255898994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10768,7 @@
         <v>-87936.51045898994</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10801,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10834,7 @@
         <v>-87914.70955898994</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10867,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10900,7 @@
         <v>-87881.15165898994</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10933,7 @@
         <v>-88002.04975898995</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10966,7 @@
         <v>-88062.22288142995</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10999,7 @@
         <v>-88272.28898142994</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11032,7 @@
         <v>-88242.29178142994</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11065,7 @@
         <v>-88243.37468142994</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11098,7 @@
         <v>-88543.37468142994</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11131,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11164,7 @@
         <v>-88308.82718142994</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11197,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11230,7 @@
         <v>-88308.86928142994</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11263,7 @@
         <v>-88346.43408142994</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11296,7 @@
         <v>-88248.17208142993</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11143,11 +11395,17 @@
         <v>-88059.85698142994</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>46840</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11434,17 @@
         <v>-88197.82958142993</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>46900</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11473,17 @@
         <v>-88216.33638142994</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>46870</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11512,17 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>46620</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11551,17 @@
         <v>-88194.36578142994</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>46910</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11590,15 @@
         <v>-88200.58528142994</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11627,17 @@
         <v>-88161.96128142995</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>46490</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11666,17 @@
         <v>-88140.10038142995</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>46510</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11705,17 @@
         <v>-88130.10038142995</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>46590</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11744,17 @@
         <v>-88136.45968142994</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>46610</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11783,17 @@
         <v>-88212.87488142995</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>46460</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11822,17 @@
         <v>-88212.87488142995</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>46310</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11544,10 +11866,12 @@
       <c r="I338" t="n">
         <v>46310</v>
       </c>
-      <c r="J338" t="n">
-        <v>46310</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11581,12 +11905,10 @@
       <c r="I339" t="n">
         <v>46510</v>
       </c>
-      <c r="J339" t="n">
-        <v>46310</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -11617,22 +11939,16 @@
         <v>-88200.35898142996</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>46840</v>
-      </c>
-      <c r="J340" t="n">
-        <v>46310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
@@ -11691,14 +12007,10 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>46490</v>
-      </c>
-      <c r="J342" t="n">
-        <v>46490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
@@ -11728,17 +12040,11 @@
         <v>-88195.96558142996</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>46490</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11770,14 +12076,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>46490</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11806,11 +12106,17 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>46880</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11839,15 +12145,15 @@
         <v>-88104.75438142996</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>46910</v>
-      </c>
-      <c r="J346" t="n">
-        <v>46910</v>
-      </c>
-      <c r="K346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11876,15 +12182,13 @@
         <v>-88104.73438142995</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>46910</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -11915,15 +12219,13 @@
         <v>-88114.42738142995</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>46910</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -11954,11 +12256,15 @@
         <v>-88114.29238142996</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11987,11 +12293,15 @@
         <v>-88164.28348142996</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12020,11 +12330,15 @@
         <v>-88162.93828142996</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +12367,15 @@
         <v>-88090.45738142997</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12086,11 +12404,15 @@
         <v>-88102.65198142997</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12123,7 +12445,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12156,7 +12482,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12185,14 +12515,16 @@
         <v>-88090.18988142996</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -12218,7 +12550,7 @@
         <v>-88093.12188142996</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12251,7 +12583,7 @@
         <v>-88093.12188142996</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12284,7 +12616,7 @@
         <v>-88067.73088142996</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12317,7 +12649,7 @@
         <v>-88067.78588142995</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12350,7 +12682,7 @@
         <v>-88091.39848142995</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12383,7 +12715,7 @@
         <v>-88090.75778142994</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12416,7 +12748,7 @@
         <v>-88057.44238142994</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12449,7 +12781,7 @@
         <v>-88068.33958142994</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12482,7 +12814,7 @@
         <v>-88050.04708142995</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12515,683 +12847,611 @@
         <v>-87938.52828142994</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>47310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>47630</v>
+      </c>
+      <c r="C367" t="n">
+        <v>47630</v>
+      </c>
+      <c r="D367" t="n">
+        <v>47630</v>
+      </c>
+      <c r="E367" t="n">
+        <v>47630</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.6512</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-87938.52828142994</v>
+      </c>
+      <c r="H367" t="n">
+        <v>2</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>47080</v>
+      </c>
+      <c r="C368" t="n">
+        <v>47350</v>
+      </c>
+      <c r="D368" t="n">
+        <v>47350</v>
+      </c>
+      <c r="E368" t="n">
+        <v>47080</v>
+      </c>
+      <c r="F368" t="n">
+        <v>25</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-87963.52828142994</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>47570</v>
+      </c>
+      <c r="C369" t="n">
+        <v>47570</v>
+      </c>
+      <c r="D369" t="n">
+        <v>47570</v>
+      </c>
+      <c r="E369" t="n">
+        <v>47570</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-87963.40968142994</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>47630</v>
+      </c>
+      <c r="C370" t="n">
+        <v>47640</v>
+      </c>
+      <c r="D370" t="n">
+        <v>47640</v>
+      </c>
+      <c r="E370" t="n">
+        <v>47630</v>
+      </c>
+      <c r="F370" t="n">
+        <v>7.3717374</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-87956.03794402994</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C371" t="n">
+        <v>46990</v>
+      </c>
+      <c r="D371" t="n">
+        <v>47000</v>
+      </c>
+      <c r="E371" t="n">
+        <v>46990</v>
+      </c>
+      <c r="F371" t="n">
+        <v>287.9585</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-88243.99644402994</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>46990</v>
+      </c>
+      <c r="C372" t="n">
+        <v>47300</v>
+      </c>
+      <c r="D372" t="n">
+        <v>47300</v>
+      </c>
+      <c r="E372" t="n">
+        <v>46630</v>
+      </c>
+      <c r="F372" t="n">
+        <v>327.7653</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-87916.23114402994</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>47300</v>
+      </c>
+      <c r="C373" t="n">
+        <v>47080</v>
+      </c>
+      <c r="D373" t="n">
+        <v>47300</v>
+      </c>
+      <c r="E373" t="n">
+        <v>47000</v>
+      </c>
+      <c r="F373" t="n">
+        <v>87.38639999999999</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-88003.61754402994</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>47070</v>
+      </c>
+      <c r="C374" t="n">
+        <v>47070</v>
+      </c>
+      <c r="D374" t="n">
+        <v>47070</v>
+      </c>
+      <c r="E374" t="n">
+        <v>47070</v>
+      </c>
+      <c r="F374" t="n">
+        <v>13.6722</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-88017.28974402994</v>
+      </c>
+      <c r="H374" t="n">
+        <v>2</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>46850</v>
+      </c>
+      <c r="C375" t="n">
+        <v>46840</v>
+      </c>
+      <c r="D375" t="n">
+        <v>46850</v>
+      </c>
+      <c r="E375" t="n">
+        <v>46840</v>
+      </c>
+      <c r="F375" t="n">
+        <v>7.6875</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-88024.97724402994</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>46840</v>
+      </c>
+      <c r="C376" t="n">
+        <v>47220</v>
+      </c>
+      <c r="D376" t="n">
+        <v>47220</v>
+      </c>
+      <c r="E376" t="n">
+        <v>46840</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-88024.95344402995</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>47220</v>
+      </c>
+      <c r="C377" t="n">
+        <v>47220</v>
+      </c>
+      <c r="D377" t="n">
+        <v>47220</v>
+      </c>
+      <c r="E377" t="n">
+        <v>47220</v>
+      </c>
+      <c r="F377" t="n">
+        <v>52.0811</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-88024.95344402995</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>46940</v>
+      </c>
+      <c r="C378" t="n">
+        <v>46940</v>
+      </c>
+      <c r="D378" t="n">
+        <v>46940</v>
+      </c>
+      <c r="E378" t="n">
+        <v>46940</v>
+      </c>
+      <c r="F378" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-88031.65344402994</v>
+      </c>
+      <c r="H378" t="n">
+        <v>2</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>46950</v>
+      </c>
+      <c r="C379" t="n">
+        <v>46890</v>
+      </c>
+      <c r="D379" t="n">
+        <v>46950</v>
+      </c>
+      <c r="E379" t="n">
+        <v>46890</v>
+      </c>
+      <c r="F379" t="n">
+        <v>19.757</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-88051.41044402994</v>
+      </c>
+      <c r="H379" t="n">
+        <v>2</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>46890</v>
+      </c>
+      <c r="C380" t="n">
+        <v>46710</v>
+      </c>
+      <c r="D380" t="n">
+        <v>46890</v>
+      </c>
+      <c r="E380" t="n">
+        <v>46710</v>
+      </c>
+      <c r="F380" t="n">
+        <v>8.217700000000001</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-88059.62814402994</v>
+      </c>
+      <c r="H380" t="n">
+        <v>2</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>47090</v>
+      </c>
+      <c r="C381" t="n">
+        <v>47080</v>
+      </c>
+      <c r="D381" t="n">
+        <v>47090</v>
+      </c>
+      <c r="E381" t="n">
+        <v>47080</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1.4088</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-88058.21934402993</v>
+      </c>
+      <c r="H381" t="n">
+        <v>2</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>47070</v>
+      </c>
+      <c r="C382" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D382" t="n">
+        <v>47070</v>
+      </c>
+      <c r="E382" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F382" t="n">
+        <v>2.4145</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-88060.63384402993</v>
+      </c>
+      <c r="H382" t="n">
+        <v>2</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>47050</v>
+      </c>
+      <c r="C383" t="n">
+        <v>46800</v>
+      </c>
+      <c r="D383" t="n">
+        <v>47050</v>
+      </c>
+      <c r="E383" t="n">
+        <v>46800</v>
+      </c>
+      <c r="F383" t="n">
+        <v>1.5227</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-88062.15654402993</v>
+      </c>
+      <c r="H383" t="n">
+        <v>2</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>46790</v>
+      </c>
+      <c r="C384" t="n">
+        <v>47040</v>
+      </c>
+      <c r="D384" t="n">
+        <v>47060</v>
+      </c>
+      <c r="E384" t="n">
+        <v>46790</v>
+      </c>
+      <c r="F384" t="n">
+        <v>11.0332</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-88051.12334402993</v>
+      </c>
+      <c r="H384" t="n">
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>46800</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>47630</v>
-      </c>
-      <c r="C367" t="n">
-        <v>47630</v>
-      </c>
-      <c r="D367" t="n">
-        <v>47630</v>
-      </c>
-      <c r="E367" t="n">
-        <v>47630</v>
-      </c>
-      <c r="F367" t="n">
-        <v>0.6512</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-87938.52828142994</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>47080</v>
-      </c>
-      <c r="C368" t="n">
-        <v>47350</v>
-      </c>
-      <c r="D368" t="n">
-        <v>47350</v>
-      </c>
-      <c r="E368" t="n">
-        <v>47080</v>
-      </c>
-      <c r="F368" t="n">
-        <v>25</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-87963.52828142994</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>47570</v>
-      </c>
-      <c r="C369" t="n">
-        <v>47570</v>
-      </c>
-      <c r="D369" t="n">
-        <v>47570</v>
-      </c>
-      <c r="E369" t="n">
-        <v>47570</v>
-      </c>
-      <c r="F369" t="n">
-        <v>0.1186</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-87963.40968142994</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>47630</v>
-      </c>
-      <c r="C370" t="n">
-        <v>47640</v>
-      </c>
-      <c r="D370" t="n">
-        <v>47640</v>
-      </c>
-      <c r="E370" t="n">
-        <v>47630</v>
-      </c>
-      <c r="F370" t="n">
-        <v>7.3717374</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-87956.03794402994</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>47000</v>
-      </c>
-      <c r="C371" t="n">
-        <v>46990</v>
-      </c>
-      <c r="D371" t="n">
-        <v>47000</v>
-      </c>
-      <c r="E371" t="n">
-        <v>46990</v>
-      </c>
-      <c r="F371" t="n">
-        <v>287.9585</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-88243.99644402994</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>46990</v>
-      </c>
-      <c r="C372" t="n">
-        <v>47300</v>
-      </c>
-      <c r="D372" t="n">
-        <v>47300</v>
-      </c>
-      <c r="E372" t="n">
-        <v>46630</v>
-      </c>
-      <c r="F372" t="n">
-        <v>327.7653</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-87916.23114402994</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>47300</v>
-      </c>
-      <c r="C373" t="n">
-        <v>47080</v>
-      </c>
-      <c r="D373" t="n">
-        <v>47300</v>
-      </c>
-      <c r="E373" t="n">
-        <v>47000</v>
-      </c>
-      <c r="F373" t="n">
-        <v>87.38639999999999</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-88003.61754402994</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>47070</v>
-      </c>
-      <c r="C374" t="n">
-        <v>47070</v>
-      </c>
-      <c r="D374" t="n">
-        <v>47070</v>
-      </c>
-      <c r="E374" t="n">
-        <v>47070</v>
-      </c>
-      <c r="F374" t="n">
-        <v>13.6722</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-88017.28974402994</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>46850</v>
-      </c>
-      <c r="C375" t="n">
-        <v>46840</v>
-      </c>
-      <c r="D375" t="n">
-        <v>46850</v>
-      </c>
-      <c r="E375" t="n">
-        <v>46840</v>
-      </c>
-      <c r="F375" t="n">
-        <v>7.6875</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-88024.97724402994</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>46840</v>
-      </c>
-      <c r="C376" t="n">
-        <v>47220</v>
-      </c>
-      <c r="D376" t="n">
-        <v>47220</v>
-      </c>
-      <c r="E376" t="n">
-        <v>46840</v>
-      </c>
-      <c r="F376" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-88024.95344402995</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>47220</v>
-      </c>
-      <c r="C377" t="n">
-        <v>47220</v>
-      </c>
-      <c r="D377" t="n">
-        <v>47220</v>
-      </c>
-      <c r="E377" t="n">
-        <v>47220</v>
-      </c>
-      <c r="F377" t="n">
-        <v>52.0811</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-88024.95344402995</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>46940</v>
-      </c>
-      <c r="C378" t="n">
-        <v>46940</v>
-      </c>
-      <c r="D378" t="n">
-        <v>46940</v>
-      </c>
-      <c r="E378" t="n">
-        <v>46940</v>
-      </c>
-      <c r="F378" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-88031.65344402994</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>46950</v>
-      </c>
-      <c r="C379" t="n">
-        <v>46890</v>
-      </c>
-      <c r="D379" t="n">
-        <v>46950</v>
-      </c>
-      <c r="E379" t="n">
-        <v>46890</v>
-      </c>
-      <c r="F379" t="n">
-        <v>19.757</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-88051.41044402994</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>46890</v>
-      </c>
-      <c r="C380" t="n">
-        <v>46710</v>
-      </c>
-      <c r="D380" t="n">
-        <v>46890</v>
-      </c>
-      <c r="E380" t="n">
-        <v>46710</v>
-      </c>
-      <c r="F380" t="n">
-        <v>8.217700000000001</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-88059.62814402994</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>47090</v>
-      </c>
-      <c r="C381" t="n">
-        <v>47080</v>
-      </c>
-      <c r="D381" t="n">
-        <v>47090</v>
-      </c>
-      <c r="E381" t="n">
-        <v>47080</v>
-      </c>
-      <c r="F381" t="n">
-        <v>1.4088</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-88058.21934402993</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>47070</v>
-      </c>
-      <c r="C382" t="n">
-        <v>47050</v>
-      </c>
-      <c r="D382" t="n">
-        <v>47070</v>
-      </c>
-      <c r="E382" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F382" t="n">
-        <v>2.4145</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-88060.63384402993</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>47050</v>
-      </c>
-      <c r="C383" t="n">
-        <v>46800</v>
-      </c>
-      <c r="D383" t="n">
-        <v>47050</v>
-      </c>
-      <c r="E383" t="n">
-        <v>46800</v>
-      </c>
-      <c r="F383" t="n">
-        <v>1.5227</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-88062.15654402993</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>46790</v>
-      </c>
-      <c r="C384" t="n">
-        <v>47040</v>
-      </c>
-      <c r="D384" t="n">
-        <v>47060</v>
-      </c>
-      <c r="E384" t="n">
-        <v>46790</v>
-      </c>
-      <c r="F384" t="n">
-        <v>11.0332</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-88051.12334402993</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13220,9 +13480,11 @@
         <v>-88051.22234402993</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>47040</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13257,9 +13519,11 @@
         <v>-88058.74164402993</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>47030</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13294,9 +13558,11 @@
         <v>-88030.15074402993</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>46460</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13331,9 +13597,11 @@
         <v>-88030.15074402993</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>47040</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13368,7 +13636,7 @@
         <v>-88037.52244402994</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13405,9 +13673,11 @@
         <v>-88016.91364402993</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>46570</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13479,7 +13749,7 @@
         <v>-88021.99634402993</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13516,7 +13786,7 @@
         <v>-88061.56484402993</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13553,7 +13823,7 @@
         <v>-88061.66484402993</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13590,18 +13860,16 @@
         <v>-88074.31704402993</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -13627,15 +13895,15 @@
         <v>-88067.40734402993</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>46750</v>
+      </c>
+      <c r="J396" t="n">
+        <v>46750</v>
+      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13667,10 +13935,12 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>46750</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13701,15 +13971,15 @@
         <v>-88055.25704402992</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>47490</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>46750</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L398" t="n">
@@ -13740,15 +14010,11 @@
         <v>-88053.25704402992</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13777,15 +14043,11 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13814,15 +14076,11 @@
         <v>-88016.39254402992</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13851,17 +14109,11 @@
         <v>-88046.81574402993</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>48190</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13890,15 +14142,11 @@
         <v>-88056.81574402993</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13927,15 +14175,11 @@
         <v>-88061.19374402992</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13964,15 +14208,11 @@
         <v>-88052.80364402992</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14001,15 +14241,11 @@
         <v>-88098.20024402991</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14038,15 +14274,11 @@
         <v>-88119.29154402991</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14075,15 +14307,11 @@
         <v>-88129.29154402991</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14112,15 +14340,11 @@
         <v>-87983.51304402991</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14149,15 +14373,11 @@
         <v>-87988.66044402991</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14186,15 +14406,11 @@
         <v>-87992.80954402991</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14223,15 +14439,11 @@
         <v>-87997.2095440299</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14260,15 +14472,11 @@
         <v>-87985.5446440299</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14297,15 +14505,11 @@
         <v>-87981.34964402989</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14334,15 +14538,11 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14371,15 +14571,11 @@
         <v>-87976.72644402989</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14408,15 +14604,11 @@
         <v>-88015.77544402989</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14445,15 +14637,11 @@
         <v>-88117.02914402989</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14482,15 +14670,11 @@
         <v>-88117.89054402988</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14519,15 +14703,11 @@
         <v>-88117.86234402988</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14556,15 +14736,11 @@
         <v>-88127.86234402988</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14593,15 +14769,11 @@
         <v>-88152.10034402988</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14630,15 +14802,11 @@
         <v>-88141.45324402988</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14667,15 +14835,11 @@
         <v>-88151.77134402988</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14704,15 +14868,15 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>47240</v>
+      </c>
+      <c r="J425" t="n">
+        <v>47240</v>
+      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14741,13 +14905,17 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>47100</v>
+      </c>
+      <c r="J426" t="n">
+        <v>47240</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14778,13 +14946,17 @@
         <v>-88153.69324402988</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>47100</v>
+      </c>
+      <c r="J427" t="n">
+        <v>47240</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14815,13 +14987,17 @@
         <v>-88163.34534402989</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>47100</v>
+      </c>
+      <c r="J428" t="n">
+        <v>47240</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14852,10 +15028,14 @@
         <v>-88165.27414402989</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>46960</v>
+      </c>
+      <c r="J429" t="n">
+        <v>47240</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14889,10 +15069,14 @@
         <v>-88143.70294402988</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>46900</v>
+      </c>
+      <c r="J430" t="n">
+        <v>47240</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14926,10 +15110,14 @@
         <v>-88143.68894402988</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>47230</v>
+      </c>
+      <c r="J431" t="n">
+        <v>47240</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14963,10 +15151,12 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>47240</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15000,10 +15190,14 @@
         <v>-88146.09034402989</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>47200</v>
+      </c>
+      <c r="J433" t="n">
+        <v>47240</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15037,10 +15231,14 @@
         <v>-88146.31194402989</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>47200</v>
+      </c>
+      <c r="J434" t="n">
+        <v>47240</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15074,10 +15272,14 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>46900</v>
+      </c>
+      <c r="J435" t="n">
+        <v>47240</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,10 +15313,14 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>46740</v>
+      </c>
+      <c r="J436" t="n">
+        <v>47240</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15148,10 +15354,14 @@
         <v>-88146.52554402989</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>46740</v>
+      </c>
+      <c r="J437" t="n">
+        <v>47240</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15185,10 +15395,14 @@
         <v>-88147.39004402989</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>46740</v>
+      </c>
+      <c r="J438" t="n">
+        <v>47240</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,10 +15436,14 @@
         <v>-88144.35774402988</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>46660</v>
+      </c>
+      <c r="J439" t="n">
+        <v>47240</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15259,10 +15477,14 @@
         <v>-88130.48424402988</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>46780</v>
+      </c>
+      <c r="J440" t="n">
+        <v>47240</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15296,10 +15518,14 @@
         <v>-88130.34784402988</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>47410</v>
+      </c>
+      <c r="J441" t="n">
+        <v>47240</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15333,17 +15559,19 @@
         <v>-88221.78114402988</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>47240</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L442" t="n">
-        <v>1</v>
+        <v>0.9981752751905165</v>
       </c>
       <c r="M442" t="inlineStr"/>
     </row>
@@ -15370,15 +15598,11 @@
         <v>-88173.57114402988</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15407,15 +15631,11 @@
         <v>-88208.74904402987</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15444,15 +15664,11 @@
         <v>-88173.60844402987</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15481,15 +15697,11 @@
         <v>-88204.09274402987</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15518,15 +15730,11 @@
         <v>-88257.94534402987</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15555,13 +15763,15 @@
         <v>-88295.70034402987</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>47050</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15592,9 +15802,11 @@
         <v>-88189.15224402987</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>46830</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15629,9 +15841,11 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>46860</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15666,9 +15880,11 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>47190</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15703,9 +15919,11 @@
         <v>-88005.00264402987</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>47190</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15740,9 +15958,11 @@
         <v>-87980.48944402987</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>47190</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15777,7 +15997,7 @@
         <v>-87979.06904402986</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15814,9 +16034,11 @@
         <v>-87986.04514402986</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>47230</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15851,7 +16073,7 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15888,9 +16110,11 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>47200</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15925,9 +16149,11 @@
         <v>-87986.11964402987</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>47200</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15962,9 +16188,11 @@
         <v>-88195.61964402987</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>47200</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15999,9 +16227,11 @@
         <v>-88194.66194402987</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>47180</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16036,9 +16266,11 @@
         <v>-88200.93904402987</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>47290</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16073,9 +16305,11 @@
         <v>-88254.03364402987</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>47220</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16110,9 +16344,11 @@
         <v>-88258.18274402987</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>47210</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16147,9 +16383,11 @@
         <v>-88256.71154402987</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>47070</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16184,9 +16422,11 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>47290</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16221,9 +16461,11 @@
         <v>-88257.21834402987</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>47280</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16258,9 +16500,11 @@
         <v>-88293.44794402987</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>47280</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16295,9 +16539,11 @@
         <v>-88292.63604402987</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>47260</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16332,9 +16578,11 @@
         <v>-88277.43604402988</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>47290</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16369,18 +16617,16 @@
         <v>-88273.32834402988</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="inlineStr"/>
     </row>
     <row r="471">
@@ -16406,13 +16652,15 @@
         <v>-88273.02204402989</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>47290</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L471" t="n">
@@ -16443,15 +16691,11 @@
         <v>-88264.82404402988</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16480,15 +16724,11 @@
         <v>-88263.47076032989</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16517,15 +16757,11 @@
         <v>-88262.4340611899</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16554,15 +16790,11 @@
         <v>-88265.7177611899</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16591,15 +16823,11 @@
         <v>-88234.8070611899</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16628,15 +16856,11 @@
         <v>-88224.41406118991</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16665,15 +16889,11 @@
         <v>-88206.25696118991</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16702,15 +16922,11 @@
         <v>-88195.60146118992</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16739,15 +16955,11 @@
         <v>-88215.60146118992</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16776,15 +16988,11 @@
         <v>-88260.34026118992</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16813,15 +17021,11 @@
         <v>-88269.16846118993</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16850,15 +17054,11 @@
         <v>-88294.70806118993</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16887,15 +17087,11 @@
         <v>-88352.75606118992</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16924,15 +17120,11 @@
         <v>-88341.87766118992</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16961,15 +17153,15 @@
         <v>-88335.41136118992</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>47370</v>
+      </c>
+      <c r="J486" t="n">
+        <v>47370</v>
+      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16998,13 +17190,17 @@
         <v>-88326.88026118993</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>47730</v>
+      </c>
+      <c r="J487" t="n">
+        <v>47370</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L487" t="n">
@@ -17035,13 +17231,17 @@
         <v>-88368.63496118993</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J488" t="n">
+        <v>47370</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -17072,10 +17272,14 @@
         <v>-88357.16021952993</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>47500</v>
+      </c>
+      <c r="J489" t="n">
+        <v>47370</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17109,10 +17313,14 @@
         <v>-88371.24811952993</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>48000</v>
+      </c>
+      <c r="J490" t="n">
+        <v>47370</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17146,10 +17354,14 @@
         <v>-88379.82891952993</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>47790</v>
+      </c>
+      <c r="J491" t="n">
+        <v>47370</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17183,10 +17395,14 @@
         <v>-88372.53211952993</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>47210</v>
+      </c>
+      <c r="J492" t="n">
+        <v>47370</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17220,10 +17436,14 @@
         <v>-88382.53211952993</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>47550</v>
+      </c>
+      <c r="J493" t="n">
+        <v>47370</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17257,10 +17477,14 @@
         <v>-88380.63131952993</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>47250</v>
+      </c>
+      <c r="J494" t="n">
+        <v>47370</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17294,10 +17518,12 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>47370</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17331,10 +17557,12 @@
         <v>-88369.19541952993</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>47370</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17368,10 +17596,12 @@
         <v>-88383.20191952994</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>47370</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17405,10 +17635,14 @@
         <v>-88396.69171952993</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>47180</v>
+      </c>
+      <c r="J498" t="n">
+        <v>47370</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17442,17 +17676,19 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>47370</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L499" t="n">
-        <v>1</v>
+        <v>0.984022588135951</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
@@ -17479,13 +17715,15 @@
         <v>-88402.44571952993</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>46850</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L500" t="n">
@@ -17516,9 +17754,11 @@
         <v>-88395.97941952993</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>46850</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17553,9 +17793,11 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>46860</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17590,9 +17832,11 @@
         <v>-88395.95561952994</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>47410</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17627,7 +17871,7 @@
         <v>-88396.99231952993</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17664,9 +17908,11 @@
         <v>-88389.22061952994</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>46950</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17701,9 +17947,11 @@
         <v>-88366.22341952994</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>47010</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17738,7 +17986,7 @@
         <v>-88370.78161952994</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17775,7 +18023,7 @@
         <v>-88352.56641952993</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17812,7 +18060,7 @@
         <v>-88382.90501952994</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17849,7 +18097,7 @@
         <v>-88406.29851952994</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17886,18 +18134,16 @@
         <v>-88402.85441952995</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
@@ -17923,15 +18169,11 @@
         <v>-88402.83241952995</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17960,15 +18202,11 @@
         <v>-88402.82141952995</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17997,15 +18235,11 @@
         <v>-88403.60671952995</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18034,15 +18268,11 @@
         <v>-88402.91961952996</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18071,15 +18301,11 @@
         <v>-88394.09141952996</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18108,15 +18334,11 @@
         <v>-88392.52091952995</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18145,15 +18367,11 @@
         <v>-88372.23591952995</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18182,15 +18400,11 @@
         <v>-88329.32661952995</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18219,15 +18433,11 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18256,15 +18466,11 @@
         <v>-88326.14851952995</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18293,15 +18499,11 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18330,15 +18532,11 @@
         <v>-88325.13751952995</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18367,15 +18565,11 @@
         <v>-88632.96811952995</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18404,15 +18598,11 @@
         <v>-88632.95711952995</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18441,15 +18631,11 @@
         <v>-88633.45711952995</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18478,15 +18664,11 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18515,15 +18697,11 @@
         <v>-88642.18681952995</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18552,15 +18730,11 @@
         <v>-88646.51211952994</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18589,15 +18763,11 @@
         <v>-88646.50111952994</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18626,15 +18796,11 @@
         <v>-88647.01211952994</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18663,15 +18829,11 @@
         <v>-88815.25051952995</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18700,15 +18862,11 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18737,15 +18895,11 @@
         <v>-88815.87421952994</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18774,15 +18928,11 @@
         <v>-88817.09051952994</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18811,15 +18961,11 @@
         <v>-88816.80891952994</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18848,15 +18994,11 @@
         <v>-88816.78081952994</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18885,15 +19027,11 @@
         <v>-88807.59131952995</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18922,15 +19060,11 @@
         <v>-88808.58781952994</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18959,15 +19093,11 @@
         <v>-88783.69221952994</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18996,15 +19126,11 @@
         <v>-88783.67021952994</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19033,15 +19159,11 @@
         <v>-88820.07931952995</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19070,15 +19192,11 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19107,15 +19225,11 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19144,15 +19258,11 @@
         <v>-88823.05961952994</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19181,15 +19291,11 @@
         <v>-88826.03991952994</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19218,15 +19324,11 @@
         <v>-88829.05091952994</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19255,15 +19357,11 @@
         <v>-88399.88311952994</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19292,15 +19390,11 @@
         <v>-88391.67411952994</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
